--- a/data/form_data.xlsx
+++ b/data/form_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PyCharmMiscProject\ToolsQA_Automation_Suite\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\ToolsQA_Automation_Suite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE528D-616A-422A-941A-12F227F619E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C25921B-4110-43CB-88FA-A14346D21B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="3720" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>0096212345</t>
   </si>
   <si>
-    <t>09 March 2023</t>
-  </si>
-  <si>
     <t>English,Maths</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>09 March 2024</t>
   </si>
 </sst>
 </file>
@@ -134,8 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,9 +453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -510,26 +518,26 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -549,12 +557,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/form_data.xlsx
+++ b/data/form_data.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\ToolsQA_Automation_Suite\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malzoubi\PycharmProjects\PythonProject\ToolsQA_Automation_Suite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C25921B-4110-43CB-88FA-A14346D21B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>firstName</t>
   </si>
@@ -92,19 +91,31 @@
     <t>Karnal</t>
   </si>
   <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>09 March 2024</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>Hello people!!</t>
+  </si>
+  <si>
+    <t>dismiss</t>
+  </si>
+  <si>
+    <t>hellll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,10 +461,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -519,7 +530,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -546,23 +557,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/form_data.xlsx
+++ b/data/form_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malzoubi\PycharmProjects\PythonProject\ToolsQA_Automation_Suite\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\ToolsQA_Automation_Suite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B057EBF-C1DF-403A-B142-B5319BB98469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>firstName</t>
   </si>
@@ -110,12 +111,21 @@
   </si>
   <si>
     <t>hellll</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M1" sqref="M1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +485,7 @@
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +522,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -549,6 +562,88 @@
       </c>
       <c r="L2" t="s">
         <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -557,11 +652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,28 +664,45 @@
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
